--- a/Test Lr End/Dimensionalidad Alta/Random/Summary/Summary Random Dataset.xlsx
+++ b/Test Lr End/Dimensionalidad Alta/Random/Summary/Summary Random Dataset.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B2AFE7-9CE7-45C6-89E0-36168112C858}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C09641-23CD-4258-AE44-A5E4C1CD4EEC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time (Mean)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
   <si>
     <t>Algorithm</t>
   </si>
@@ -66,6 +66,66 @@
   </si>
   <si>
     <t>Time Autograd CPU (Variance)</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>1,5K</t>
+  </si>
+  <si>
+    <t>3K</t>
+  </si>
+  <si>
+    <t>3,5K</t>
+  </si>
+  <si>
+    <t>5K</t>
+  </si>
+  <si>
+    <t>8K</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>15K</t>
+  </si>
+  <si>
+    <t>35K</t>
+  </si>
+  <si>
+    <t>30K</t>
+  </si>
+  <si>
+    <t>50K</t>
+  </si>
+  <si>
+    <t>80K</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>120K</t>
+  </si>
+  <si>
+    <t>150K</t>
+  </si>
+  <si>
+    <t>300K</t>
+  </si>
+  <si>
+    <t>350K</t>
+  </si>
+  <si>
+    <t>400K</t>
+  </si>
+  <si>
+    <t>500K</t>
   </si>
 </sst>
 </file>
@@ -381,64 +441,64 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1000</c:v>
+                    <c:v>1K</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1500</c:v>
+                    <c:v>1,5K</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3000</c:v>
+                    <c:v>3K</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3500</c:v>
+                    <c:v>3,5K</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5000</c:v>
+                    <c:v>5K</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8000</c:v>
+                    <c:v>8K</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>10000</c:v>
+                    <c:v>10K</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>12000</c:v>
+                    <c:v>12K</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>15000</c:v>
+                    <c:v>15K</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>30000</c:v>
+                    <c:v>30K</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>35000</c:v>
+                    <c:v>35K</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>50000</c:v>
+                    <c:v>50K</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>80000</c:v>
+                    <c:v>80K</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>100000</c:v>
+                    <c:v>100K</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>120000</c:v>
+                    <c:v>120K</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>150000</c:v>
+                    <c:v>150K</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>300000</c:v>
+                    <c:v>300K</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>350000</c:v>
+                    <c:v>350K</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>400000</c:v>
+                    <c:v>400K</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>500000</c:v>
+                    <c:v>500K</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -668,64 +728,64 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1000</c:v>
+                    <c:v>1K</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1500</c:v>
+                    <c:v>1,5K</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3000</c:v>
+                    <c:v>3K</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3500</c:v>
+                    <c:v>3,5K</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5000</c:v>
+                    <c:v>5K</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8000</c:v>
+                    <c:v>8K</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>10000</c:v>
+                    <c:v>10K</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>12000</c:v>
+                    <c:v>12K</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>15000</c:v>
+                    <c:v>15K</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>30000</c:v>
+                    <c:v>30K</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>35000</c:v>
+                    <c:v>35K</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>50000</c:v>
+                    <c:v>50K</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>80000</c:v>
+                    <c:v>80K</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>100000</c:v>
+                    <c:v>100K</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>120000</c:v>
+                    <c:v>120K</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>150000</c:v>
+                    <c:v>150K</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>300000</c:v>
+                    <c:v>300K</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>350000</c:v>
+                    <c:v>350K</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>400000</c:v>
+                    <c:v>400K</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>500000</c:v>
+                    <c:v>500K</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -952,64 +1012,64 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1000</c:v>
+                    <c:v>1K</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1500</c:v>
+                    <c:v>1,5K</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3000</c:v>
+                    <c:v>3K</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3500</c:v>
+                    <c:v>3,5K</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5000</c:v>
+                    <c:v>5K</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8000</c:v>
+                    <c:v>8K</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>10000</c:v>
+                    <c:v>10K</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>12000</c:v>
+                    <c:v>12K</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>15000</c:v>
+                    <c:v>15K</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>30000</c:v>
+                    <c:v>30K</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>35000</c:v>
+                    <c:v>35K</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>50000</c:v>
+                    <c:v>50K</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>80000</c:v>
+                    <c:v>80K</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>100000</c:v>
+                    <c:v>100K</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>120000</c:v>
+                    <c:v>120K</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>150000</c:v>
+                    <c:v>150K</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>300000</c:v>
+                    <c:v>300K</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>350000</c:v>
+                    <c:v>350K</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>400000</c:v>
+                    <c:v>400K</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>500000</c:v>
+                    <c:v>500K</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1481,16 +1541,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-CL"/>
@@ -1703,64 +1760,64 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1000</c:v>
+                    <c:v>1K</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1500</c:v>
+                    <c:v>1,5K</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3000</c:v>
+                    <c:v>3K</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3500</c:v>
+                    <c:v>3,5K</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5000</c:v>
+                    <c:v>5K</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8000</c:v>
+                    <c:v>8K</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>10000</c:v>
+                    <c:v>10K</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>12000</c:v>
+                    <c:v>12K</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>15000</c:v>
+                    <c:v>15K</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>30000</c:v>
+                    <c:v>30K</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>35000</c:v>
+                    <c:v>35K</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>50000</c:v>
+                    <c:v>50K</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>80000</c:v>
+                    <c:v>80K</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>100000</c:v>
+                    <c:v>100K</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>120000</c:v>
+                    <c:v>120K</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>150000</c:v>
+                    <c:v>150K</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>300000</c:v>
+                    <c:v>300K</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>350000</c:v>
+                    <c:v>350K</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>400000</c:v>
+                    <c:v>400K</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>500000</c:v>
+                    <c:v>500K</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1990,64 +2047,64 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1000</c:v>
+                    <c:v>1K</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1500</c:v>
+                    <c:v>1,5K</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3000</c:v>
+                    <c:v>3K</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3500</c:v>
+                    <c:v>3,5K</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5000</c:v>
+                    <c:v>5K</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8000</c:v>
+                    <c:v>8K</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>10000</c:v>
+                    <c:v>10K</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>12000</c:v>
+                    <c:v>12K</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>15000</c:v>
+                    <c:v>15K</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>30000</c:v>
+                    <c:v>30K</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>35000</c:v>
+                    <c:v>35K</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>50000</c:v>
+                    <c:v>50K</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>80000</c:v>
+                    <c:v>80K</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>100000</c:v>
+                    <c:v>100K</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>120000</c:v>
+                    <c:v>120K</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>150000</c:v>
+                    <c:v>150K</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>300000</c:v>
+                    <c:v>300K</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>350000</c:v>
+                    <c:v>350K</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>400000</c:v>
+                    <c:v>400K</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>500000</c:v>
+                    <c:v>500K</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2274,64 +2331,64 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1000</c:v>
+                    <c:v>1K</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1500</c:v>
+                    <c:v>1,5K</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3000</c:v>
+                    <c:v>3K</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3500</c:v>
+                    <c:v>3,5K</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5000</c:v>
+                    <c:v>5K</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8000</c:v>
+                    <c:v>8K</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>10000</c:v>
+                    <c:v>10K</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>12000</c:v>
+                    <c:v>12K</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>15000</c:v>
+                    <c:v>15K</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>30000</c:v>
+                    <c:v>30K</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>35000</c:v>
+                    <c:v>35K</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>50000</c:v>
+                    <c:v>50K</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>80000</c:v>
+                    <c:v>80K</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>100000</c:v>
+                    <c:v>100K</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>120000</c:v>
+                    <c:v>120K</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>150000</c:v>
+                    <c:v>150K</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>300000</c:v>
+                    <c:v>300K</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>350000</c:v>
+                    <c:v>350K</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>400000</c:v>
+                    <c:v>400K</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>500000</c:v>
+                    <c:v>500K</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -4188,8 +4245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4235,8 +4292,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1000</v>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -4261,8 +4318,8 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1500</v>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -4287,8 +4344,8 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>3000</v>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -4313,8 +4370,8 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>3500</v>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -4339,8 +4396,8 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>5000</v>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -4365,8 +4422,8 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>8000</v>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
       <c r="D7">
         <v>80</v>
@@ -4391,8 +4448,8 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>10000</v>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -4417,8 +4474,8 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>12000</v>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
       <c r="D9">
         <v>115</v>
@@ -4443,8 +4500,8 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>15000</v>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
       <c r="D10">
         <v>130</v>
@@ -4469,8 +4526,8 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>30000</v>
+      <c r="C11" t="s">
+        <v>23</v>
       </c>
       <c r="D11">
         <v>150</v>
@@ -4495,8 +4552,8 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>35000</v>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
       <c r="D12">
         <v>300</v>
@@ -4521,8 +4578,8 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>50000</v>
+      <c r="C13" t="s">
+        <v>24</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -4547,8 +4604,8 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>80000</v>
+      <c r="C14" t="s">
+        <v>25</v>
       </c>
       <c r="D14">
         <v>800</v>
@@ -4573,8 +4630,8 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>100000</v>
+      <c r="C15" t="s">
+        <v>26</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -4599,8 +4656,8 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
-        <v>120000</v>
+      <c r="C16" t="s">
+        <v>27</v>
       </c>
       <c r="D16">
         <v>1250</v>
@@ -4625,8 +4682,8 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>150000</v>
+      <c r="C17" t="s">
+        <v>28</v>
       </c>
       <c r="D17">
         <v>1500</v>
@@ -4651,8 +4708,8 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>300000</v>
+      <c r="C18" t="s">
+        <v>29</v>
       </c>
       <c r="D18">
         <v>3000</v>
@@ -4675,8 +4732,8 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19">
-        <v>350000</v>
+      <c r="C19" t="s">
+        <v>30</v>
       </c>
       <c r="D19">
         <v>4000</v>
@@ -4697,8 +4754,8 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20">
-        <v>400000</v>
+      <c r="C20" t="s">
+        <v>31</v>
       </c>
       <c r="D20">
         <v>4000</v>
@@ -4719,8 +4776,8 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21">
-        <v>500000</v>
+      <c r="C21" t="s">
+        <v>32</v>
       </c>
       <c r="D21">
         <v>4000</v>
@@ -4745,7 +4802,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H21"/>
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4789,8 +4846,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1000</v>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -4815,8 +4872,8 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1500</v>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -4841,8 +4898,8 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>3000</v>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -4867,8 +4924,8 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>3500</v>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -4893,8 +4950,8 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>5000</v>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -4919,8 +4976,8 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>8000</v>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D7">
         <v>80</v>
@@ -4945,8 +5002,8 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>10000</v>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -4971,8 +5028,8 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>12000</v>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D9">
         <v>115</v>
@@ -4997,8 +5054,8 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>15000</v>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D10">
         <v>130</v>
@@ -5023,8 +5080,8 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
-        <v>30000</v>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D11">
         <v>150</v>
@@ -5049,8 +5106,8 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>35000</v>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D12">
         <v>300</v>
@@ -5075,8 +5132,8 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>50000</v>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -5101,8 +5158,8 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>80000</v>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D14">
         <v>800</v>
@@ -5127,8 +5184,8 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>100000</v>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -5153,8 +5210,8 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
-        <v>120000</v>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D16">
         <v>1250</v>
@@ -5179,8 +5236,8 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>150000</v>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D17">
         <v>1500</v>
@@ -5205,8 +5262,8 @@
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>300000</v>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D18">
         <v>3000</v>
@@ -5229,8 +5286,8 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19">
-        <v>350000</v>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D19">
         <v>4000</v>
@@ -5251,8 +5308,8 @@
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20">
-        <v>400000</v>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D20">
         <v>4000</v>
@@ -5273,8 +5330,8 @@
       <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C21">
-        <v>500000</v>
+      <c r="C21" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D21">
         <v>4000</v>
@@ -5300,7 +5357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F5B202-738B-477F-BAD1-611D7CFCBDE9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
